--- a/raw_data/20200818_saline/20200818_Sensor3_Test_35.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_35.xlsx
@@ -1,1217 +1,1633 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80424A-EC48-4B05-B1AB-BCA6113AF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>31154.584751</v>
+        <v>31154.584750999999</v>
       </c>
       <c r="B2" s="1">
-        <v>8.654051</v>
+        <v>8.6540510000000008</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.699000</v>
+        <v>-261.69900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>31164.971469</v>
       </c>
       <c r="G2" s="1">
-        <v>8.656937</v>
+        <v>8.6569369999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.480000</v>
+        <v>1171.48</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.542000</v>
+        <v>-219.542</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>31175.426640</v>
+        <v>31175.426640000001</v>
       </c>
       <c r="L2" s="1">
-        <v>8.659841</v>
+        <v>8.6598410000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.700000</v>
+        <v>1199.7</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.899000</v>
+        <v>-152.899</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>31185.927939</v>
+        <v>31185.927939000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.662758</v>
+        <v>8.6627580000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1207.580000</v>
+        <v>1207.58</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.038000</v>
+        <v>-130.03800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>31196.836535</v>
+        <v>31196.836534999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.665788</v>
+        <v>8.6657879999999992</v>
       </c>
       <c r="W2" s="1">
-        <v>1214.870000</v>
+        <v>1214.8699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.671000</v>
+        <v>-108.67100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>31207.043659</v>
+        <v>31207.043658999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.668623</v>
+        <v>8.6686230000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1222.460000</v>
+        <v>1222.46</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.270700</v>
+        <v>-91.270700000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>31217.336632</v>
+        <v>31217.336631999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.671482</v>
+        <v>8.6714819999999992</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.960000</v>
+        <v>1226.96</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.497400</v>
+        <v>-86.497399999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>31227.404923</v>
+        <v>31227.404922999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.674279</v>
+        <v>8.6742790000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.721700</v>
+        <v>-89.721699999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>31237.664141</v>
+        <v>31237.664141000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.677129</v>
+        <v>8.6771290000000008</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.626000</v>
+        <v>-101.626</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>31248.288944</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.680080</v>
+        <v>8.6800800000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1251.680000</v>
+        <v>1251.68</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>31258.993602</v>
+        <v>31258.993601999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.683054</v>
+        <v>8.6830540000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.000000</v>
+        <v>1260</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.587000</v>
+        <v>-138.58699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>31269.960644</v>
+        <v>31269.960643999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.686100</v>
+        <v>8.6860999999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.275000</v>
+        <v>-221.27500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>31281.031850</v>
+        <v>31281.031849999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.689176</v>
+        <v>8.6891759999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.170000</v>
+        <v>1369.17</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.467000</v>
+        <v>-359.46699999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>31292.488437</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.692358</v>
+        <v>8.6923580000000005</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-585.104000</v>
+        <v>-585.10400000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>31302.851884</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.695237</v>
+        <v>8.6952370000000005</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.470000</v>
+        <v>1616.47</v>
       </c>
       <c r="BV2" s="1">
-        <v>-839.850000</v>
+        <v>-839.85</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>31313.988523</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.698330</v>
+        <v>8.6983300000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.140000</v>
+        <v>1769.14</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1117.970000</v>
+        <v>-1117.97</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>31325.223434</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.701451</v>
+        <v>8.7014510000000005</v>
       </c>
       <c r="CE2" s="1">
-        <v>2190.650000</v>
+        <v>2190.65</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1792.400000</v>
+        <v>-1792.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>31154.976587</v>
+        <v>31154.976587000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.654160</v>
+        <v>8.6541599999999992</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.900000</v>
+        <v>1149.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.880000</v>
+        <v>-261.88</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>31165.344957</v>
+        <v>31165.344957000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.657040</v>
+        <v>8.6570400000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.560000</v>
+        <v>1171.56</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.566000</v>
+        <v>-219.566</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>31176.111647</v>
+        <v>31176.111647000002</v>
       </c>
       <c r="L3" s="1">
         <v>8.660031</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.715000</v>
+        <v>-152.715</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>31186.611958</v>
+        <v>31186.611958000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.662948</v>
+        <v>8.6629480000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.957000</v>
+        <v>-129.95699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>31197.232260</v>
+        <v>31197.232260000001</v>
       </c>
       <c r="V3" s="1">
-        <v>8.665898</v>
+        <v>8.6658980000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.697000</v>
+        <v>-108.697</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>31207.393840</v>
+        <v>31207.393840000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.668721</v>
+        <v>8.6687209999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.308500</v>
+        <v>-91.308499999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>31217.678344</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.671577</v>
+        <v>8.6715769999999992</v>
       </c>
       <c r="AG3" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.550700</v>
+        <v>-86.550700000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>31227.787835</v>
+        <v>31227.787834999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.674386</v>
+        <v>8.6743860000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1233.980000</v>
+        <v>1233.98</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.715500</v>
+        <v>-89.715500000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>31238.055027</v>
+        <v>31238.055026999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.677238</v>
+        <v>8.6772379999999991</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.613000</v>
+        <v>-101.613</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>31248.710048</v>
+        <v>31248.710048000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.680197</v>
+        <v>8.6801969999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.028000</v>
+        <v>-121.02800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>31259.418178</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.683172</v>
+        <v>8.6831720000000008</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.000000</v>
+        <v>1260</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.580000</v>
+        <v>-138.58000000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>31270.399138</v>
+        <v>31270.399138000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.686222</v>
+        <v>8.6862220000000008</v>
       </c>
       <c r="BF3" s="1">
-        <v>1299.830000</v>
+        <v>1299.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.267000</v>
+        <v>-221.267</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>31281.408309</v>
+        <v>31281.408308999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.689280</v>
+        <v>8.6892800000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.170000</v>
+        <v>1369.17</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.491000</v>
+        <v>-359.49099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>31292.921482</v>
+        <v>31292.921482000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.692478</v>
+        <v>8.6924779999999995</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-585.060000</v>
+        <v>-585.05999999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>31303.308703</v>
+        <v>31303.308702999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.695364</v>
+        <v>8.6953639999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.450000</v>
+        <v>1616.45</v>
       </c>
       <c r="BV3" s="1">
-        <v>-839.938000</v>
+        <v>-839.93799999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>31314.459453</v>
+        <v>31314.459452999999</v>
       </c>
       <c r="BY3" s="1">
         <v>8.698461</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.230000</v>
+        <v>1769.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1118.150000</v>
+        <v>-1118.1500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>31325.767017</v>
+        <v>31325.767016999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.701602</v>
+        <v>8.7016019999999994</v>
       </c>
       <c r="CE3" s="1">
-        <v>2189.800000</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1794.130000</v>
+        <v>-1794.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>31155.320314</v>
+        <v>31155.320314000001</v>
       </c>
       <c r="B4" s="1">
-        <v>8.654256</v>
+        <v>8.6542560000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.440000</v>
+        <v>1149.44</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.503000</v>
+        <v>-261.50299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>31165.992267</v>
+        <v>31165.992267000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.657220</v>
+        <v>8.6572200000000006</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.760000</v>
+        <v>1171.76</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.675000</v>
+        <v>-219.67500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>31176.491550</v>
+        <v>31176.491549999999</v>
       </c>
       <c r="L4" s="1">
-        <v>8.660137</v>
+        <v>8.6601370000000006</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.940000</v>
+        <v>1199.94</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.474000</v>
+        <v>-152.47399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>31187.002800</v>
+        <v>31187.002799999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.663056</v>
+        <v>8.6630559999999992</v>
       </c>
       <c r="R4" s="1">
-        <v>1207.640000</v>
+        <v>1207.6400000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.930000</v>
+        <v>-129.93</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>31197.575491</v>
       </c>
       <c r="V4" s="1">
-        <v>8.665993</v>
+        <v>8.6659930000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.710000</v>
+        <v>-108.71</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>31207.743477</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.668818</v>
+        <v>8.6688179999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.203500</v>
+        <v>-91.203500000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>31218.023064</v>
+        <v>31218.023064000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.671673</v>
+        <v>8.6716730000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.990000</v>
+        <v>1226.99</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.513500</v>
+        <v>-86.513499999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>31228.208938</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.674502</v>
+        <v>8.6745020000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.733300</v>
+        <v>-89.7333</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>31238.481052</v>
+        <v>31238.481051999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.677356</v>
+        <v>8.6773559999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.603000</v>
+        <v>-101.60299999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>31249.060260</v>
+        <v>31249.060259999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.680295</v>
+        <v>8.6802949999999992</v>
       </c>
       <c r="AV4" s="1">
-        <v>1251.690000</v>
+        <v>1251.69</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.005000</v>
+        <v>-121.005</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>31259.774337</v>
+        <v>31259.774336999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.683271</v>
+        <v>8.6832709999999995</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.609000</v>
+        <v>-138.60900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>31270.759202</v>
+        <v>31270.759202000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.686322</v>
+        <v>8.6863220000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.277000</v>
+        <v>-221.27699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>31281.785267</v>
+        <v>31281.785266999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.689385</v>
+        <v>8.6893849999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.160000</v>
+        <v>1369.16</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.507000</v>
+        <v>-359.50700000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>31293.346021</v>
+        <v>31293.346021000001</v>
       </c>
       <c r="BO4" s="1">
         <v>8.692596</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-585.111000</v>
+        <v>-585.11099999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>31303.736711</v>
+        <v>31303.736711000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.695482</v>
+        <v>8.6954820000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.530000</v>
+        <v>1616.53</v>
       </c>
       <c r="BV4" s="1">
-        <v>-840.129000</v>
+        <v>-840.12900000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>31314.893752</v>
@@ -1220,2191 +1636,2191 @@
         <v>8.698582</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.090000</v>
+        <v>1769.09</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1117.870000</v>
+        <v>-1117.8699999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>31326.287817</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.701747</v>
+        <v>8.7017469999999992</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.710000</v>
+        <v>2191.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1794.880000</v>
+        <v>-1794.88</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>31155.973546</v>
+        <v>31155.973546000001</v>
       </c>
       <c r="B5" s="1">
-        <v>8.654437</v>
+        <v>8.6544369999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.496000</v>
+        <v>-261.49599999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>31166.380109</v>
+        <v>31166.380109000002</v>
       </c>
       <c r="G5" s="1">
-        <v>8.657328</v>
+        <v>8.6573279999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.010000</v>
+        <v>1171.01</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.700000</v>
+        <v>-219.7</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>31176.835808</v>
       </c>
       <c r="L5" s="1">
-        <v>8.660232</v>
+        <v>8.6602320000000006</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.980000</v>
+        <v>1199.98</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.621000</v>
+        <v>-152.62100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>31187.349995</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.663153</v>
+        <v>8.6631529999999994</v>
       </c>
       <c r="R5" s="1">
-        <v>1207.620000</v>
+        <v>1207.6199999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.019000</v>
+        <v>-130.01900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>31197.919223</v>
+        <v>31197.919223000001</v>
       </c>
       <c r="V5" s="1">
-        <v>8.666089</v>
+        <v>8.6660889999999995</v>
       </c>
       <c r="W5" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>31208.159126</v>
+        <v>31208.159125999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.668933</v>
+        <v>8.6689330000000009</v>
       </c>
       <c r="AB5" s="1">
-        <v>1222.490000</v>
+        <v>1222.49</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.062500</v>
+        <v>-91.0625</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>31218.442679</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.671790</v>
+        <v>8.6717899999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.970000</v>
+        <v>1226.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.511800</v>
+        <v>-86.511799999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>31228.507003</v>
+        <v>31228.507002999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.674585</v>
+        <v>8.6745850000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1233.990000</v>
+        <v>1233.99</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.726800</v>
+        <v>-89.726799999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>31238.778193</v>
+        <v>31238.778192999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.677438</v>
+        <v>8.6774380000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.647000</v>
+        <v>-101.64700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>31249.423791</v>
+        <v>31249.423791000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.680395</v>
+        <v>8.6803950000000007</v>
       </c>
       <c r="AV5" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.015000</v>
+        <v>-121.015</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>31260.135888</v>
+        <v>31260.135888000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.683371</v>
+        <v>8.6833709999999993</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.010000</v>
+        <v>1260.01</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.581000</v>
+        <v>-138.58099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>31271.118305</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.686422</v>
+        <v>8.6864220000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.255000</v>
+        <v>-221.255</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>31282.556051</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.689599</v>
+        <v>8.6895989999999994</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.180000</v>
+        <v>1369.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.489000</v>
+        <v>-359.48899999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>31293.741827</v>
+        <v>31293.741827000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.692706</v>
+        <v>8.6927059999999994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.560000</v>
+        <v>1483.56</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-585.145000</v>
+        <v>-585.14499999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>31304.147894</v>
+        <v>31304.147894000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.695597</v>
+        <v>8.6955969999999994</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.640000</v>
+        <v>1616.64</v>
       </c>
       <c r="BV5" s="1">
-        <v>-840.286000</v>
+        <v>-840.28599999999994</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>31315.310887</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.698697</v>
+        <v>8.6986969999999992</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.010000</v>
+        <v>1769.01</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>31327.104768</v>
+        <v>31327.104768000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.701974</v>
+        <v>8.7019739999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.440000</v>
+        <v>2192.44</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1792.790000</v>
+        <v>-1792.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>31156.340585</v>
+        <v>31156.340585000002</v>
       </c>
       <c r="B6" s="1">
-        <v>8.654539</v>
+        <v>8.6545389999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.410000</v>
+        <v>1149.4100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.617000</v>
+        <v>-261.61700000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>31166.726328</v>
+        <v>31166.726328000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.657424</v>
+        <v>8.6574240000000007</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.880000</v>
+        <v>1170.8800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.898000</v>
+        <v>-219.898</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>31177.182973</v>
+        <v>31177.182972999999</v>
       </c>
       <c r="L6" s="1">
-        <v>8.660329</v>
+        <v>8.6603290000000008</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.700000</v>
+        <v>1199.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.569000</v>
+        <v>-152.56899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>31187.700177</v>
+        <v>31187.700176999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.663250</v>
+        <v>8.6632499999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1207.600000</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.029000</v>
+        <v>-130.029</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>31198.334369</v>
       </c>
       <c r="V6" s="1">
-        <v>8.666204</v>
+        <v>8.6662040000000005</v>
       </c>
       <c r="W6" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.625000</v>
+        <v>-108.625</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>31208.452090</v>
+        <v>31208.452089999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.669014</v>
+        <v>8.6690140000000007</v>
       </c>
       <c r="AB6" s="1">
-        <v>1222.360000</v>
+        <v>1222.3599999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.241300</v>
+        <v>-91.241299999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>31218.722454</v>
+        <v>31218.722453999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.671867</v>
+        <v>8.6718670000000007</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.950000</v>
+        <v>1226.95</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.497900</v>
+        <v>-86.497900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>31228.855689</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.674682</v>
+        <v>8.6746820000000007</v>
       </c>
       <c r="AL6" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.743400</v>
+        <v>-89.743399999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>31239.139740</v>
+        <v>31239.139739999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.677539</v>
+        <v>8.6775389999999994</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.642000</v>
+        <v>-101.642</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>31249.787855</v>
+        <v>31249.787854999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.680497</v>
+        <v>8.6804970000000008</v>
       </c>
       <c r="AV6" s="1">
-        <v>1251.690000</v>
+        <v>1251.69</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.028000</v>
+        <v>-121.02800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>31260.850659</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.683570</v>
+        <v>8.6835699999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.630000</v>
+        <v>-138.63</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>31271.843457</v>
+        <v>31271.843456999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.686623</v>
+        <v>8.6866230000000009</v>
       </c>
       <c r="BF6" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.260000</v>
+        <v>-221.26</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>31282.936519</v>
+        <v>31282.936518999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>8.689705</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.485000</v>
+        <v>-359.48500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>31294.162435</v>
+        <v>31294.162434999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.692823</v>
+        <v>8.6928230000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-585.173000</v>
+        <v>-585.173</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>31304.577461</v>
+        <v>31304.577461000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.695716</v>
+        <v>8.6957159999999991</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.570000</v>
+        <v>1616.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-840.354000</v>
+        <v>-840.35400000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>31316.049894</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.698903</v>
+        <v>8.6989029999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1118.110000</v>
+        <v>-1118.1099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>31327.351767</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.702042</v>
+        <v>8.7020420000000005</v>
       </c>
       <c r="CE6" s="1">
-        <v>2189.480000</v>
+        <v>2189.48</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1793.560000</v>
+        <v>-1793.56</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>31156.683818</v>
+        <v>31156.683818000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.654634</v>
+        <v>8.6546339999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.728000</v>
+        <v>-261.72800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>31167.068555</v>
+        <v>31167.068555000002</v>
       </c>
       <c r="G7" s="1">
-        <v>8.657519</v>
+        <v>8.6575190000000006</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.630000</v>
+        <v>1172.6300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.311000</v>
+        <v>-219.31100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>31177.612510</v>
+        <v>31177.612509999999</v>
       </c>
       <c r="L7" s="1">
-        <v>8.660448</v>
+        <v>8.6604480000000006</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.720000</v>
+        <v>1199.72</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.555000</v>
+        <v>-152.55500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>31188.116815</v>
+        <v>31188.116815000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.663366</v>
+        <v>8.6633659999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.011000</v>
+        <v>-130.011</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>31198.613649</v>
+        <v>31198.613648999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.666282</v>
+        <v>8.6662820000000007</v>
       </c>
       <c r="W7" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.705000</v>
+        <v>-108.705</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>31208.805412</v>
+        <v>31208.805412000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.669113</v>
+        <v>8.6691129999999994</v>
       </c>
       <c r="AB7" s="1">
-        <v>1222.170000</v>
+        <v>1222.17</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.241800</v>
+        <v>-91.241799999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>31219.065190</v>
+        <v>31219.065190000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.671963</v>
+        <v>8.6719629999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1226.970000</v>
+        <v>1226.97</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.534400</v>
+        <v>-86.534400000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>31229.203882</v>
+        <v>31229.203882000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.674779</v>
+        <v>8.6747789999999991</v>
       </c>
       <c r="AL7" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.719400</v>
+        <v>-89.719399999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>31239.833642</v>
+        <v>31239.833642000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.677732</v>
+        <v>8.6777320000000007</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.624000</v>
+        <v>-101.624</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>31250.516973</v>
+        <v>31250.516973000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.680699</v>
+        <v>8.6806990000000006</v>
       </c>
       <c r="AV7" s="1">
-        <v>1251.690000</v>
+        <v>1251.69</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.018000</v>
+        <v>-121.018</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>31261.210254</v>
+        <v>31261.210254000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.683670</v>
+        <v>8.6836699999999993</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.020000</v>
+        <v>1260.02</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.585000</v>
+        <v>-138.58500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>31272.204048</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.686723</v>
+        <v>8.6867230000000006</v>
       </c>
       <c r="BF7" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.285000</v>
+        <v>-221.285</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>31283.306034</v>
+        <v>31283.306034000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.689807</v>
+        <v>8.6898070000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.110000</v>
+        <v>1369.11</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.502000</v>
+        <v>-359.50200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>31294.873735</v>
+        <v>31294.873735000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.693020</v>
+        <v>8.6930200000000006</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.620000</v>
+        <v>1483.62</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-585.168000</v>
+        <v>-585.16800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>31305.303076</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.695918</v>
+        <v>8.6959180000000007</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.460000</v>
+        <v>1616.46</v>
       </c>
       <c r="BV7" s="1">
-        <v>-840.588000</v>
+        <v>-840.58799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>31316.162022</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.698934</v>
+        <v>8.6989339999999995</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.080000</v>
+        <v>1769.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>31327.883474</v>
+        <v>31327.883473999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.702190</v>
+        <v>8.7021899999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.370000</v>
+        <v>2191.37</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1794.650000</v>
+        <v>-1794.65</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>31157.268114</v>
+        <v>31157.268113999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.654797</v>
+        <v>8.6547970000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.600000</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.578000</v>
+        <v>-261.57799999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>31167.486684</v>
       </c>
       <c r="G8" s="1">
-        <v>8.657635</v>
+        <v>8.6576350000000009</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.760000</v>
+        <v>1171.76</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.404000</v>
+        <v>-219.404</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>31177.878397</v>
       </c>
       <c r="L8" s="1">
-        <v>8.660522</v>
+        <v>8.6605220000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.470000</v>
+        <v>1199.47</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.540000</v>
+        <v>-152.54</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>31188.411438</v>
+        <v>31188.411437999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.663448</v>
+        <v>8.6634480000000007</v>
       </c>
       <c r="R8" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.031000</v>
+        <v>-130.03100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>31198.958336</v>
       </c>
       <c r="V8" s="1">
-        <v>8.666377</v>
+        <v>8.6663770000000007</v>
       </c>
       <c r="W8" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.693000</v>
+        <v>-108.693</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>31209.153135</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.669209</v>
+        <v>8.6692090000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.251300</v>
+        <v>-91.251300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>31219.411366</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.672059</v>
+        <v>8.6720590000000009</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.523700</v>
+        <v>-86.523700000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>31229.900281</v>
+        <v>31229.900280999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.674972</v>
+        <v>8.6749720000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.711800</v>
+        <v>-89.711799999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>31240.249290</v>
+        <v>31240.24929</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.677847</v>
+        <v>8.6778469999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.645000</v>
+        <v>-101.645</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>31250.909308</v>
+        <v>31250.909307999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.680808</v>
+        <v>8.6808080000000007</v>
       </c>
       <c r="AV8" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.011000</v>
+        <v>-121.011</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>31261.568864</v>
+        <v>31261.568864000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.683769</v>
+        <v>8.6837689999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.010000</v>
+        <v>1260.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.603000</v>
+        <v>-138.60300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>31272.565135</v>
+        <v>31272.565135000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.686824</v>
+        <v>8.6868239999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.268000</v>
+        <v>-221.268</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>31284.022258</v>
+        <v>31284.022258000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.690006</v>
+        <v>8.6900060000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.120000</v>
+        <v>1369.12</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.513000</v>
+        <v>-359.51299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>31294.985826</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.693052</v>
+        <v>8.6930519999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-585.140000</v>
+        <v>-585.14</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>31305.423604</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.695951</v>
+        <v>8.6959510000000009</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.350000</v>
+        <v>1616.35</v>
       </c>
       <c r="BV8" s="1">
-        <v>-840.692000</v>
+        <v>-840.69200000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>31316.608390</v>
+        <v>31316.608390000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.699058</v>
+        <v>8.6990580000000008</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1118.040000</v>
+        <v>-1118.04</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>31328.425574</v>
+        <v>31328.425574000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.702340</v>
+        <v>8.7023399999999995</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.100000</v>
+        <v>2191.1</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1792.090000</v>
+        <v>-1792.09</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>31157.382184</v>
+        <v>31157.382183999998</v>
       </c>
       <c r="B9" s="1">
-        <v>8.654828</v>
+        <v>8.6548280000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.437000</v>
+        <v>-261.43700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>31167.763978</v>
+        <v>31167.763977999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.657712</v>
+        <v>8.6577120000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.840000</v>
+        <v>1171.8399999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.306000</v>
+        <v>-219.30600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>31178.225070</v>
+        <v>31178.22507</v>
       </c>
       <c r="L9" s="1">
-        <v>8.660618</v>
+        <v>8.6606179999999995</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.890000</v>
+        <v>1199.8900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.437000</v>
+        <v>-152.43700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>31188.762115</v>
+        <v>31188.762115000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.663545</v>
+        <v>8.6635449999999992</v>
       </c>
       <c r="R9" s="1">
-        <v>1207.610000</v>
+        <v>1207.6099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.004000</v>
+        <v>-130.00399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>31199.291152</v>
+        <v>31199.291152000002</v>
       </c>
       <c r="V9" s="1">
-        <v>8.666470</v>
+        <v>8.6664700000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.606000</v>
+        <v>-108.60599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>31209.850482</v>
+        <v>31209.850482000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.669403</v>
+        <v>8.6694030000000009</v>
       </c>
       <c r="AB9" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.328600</v>
+        <v>-91.328599999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>31220.093397</v>
+        <v>31220.093397000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.672248</v>
+        <v>8.6722479999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.553800</v>
+        <v>-86.553799999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>31230.251927</v>
+        <v>31230.251927000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.675070</v>
+        <v>8.6750699999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.727000</v>
+        <v>-89.727000000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>31240.605947</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.677946</v>
+        <v>8.6779460000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.596000</v>
+        <v>-101.596</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>31251.272877</v>
+        <v>31251.272876999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.680909</v>
+        <v>8.6809089999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.997000</v>
+        <v>-120.997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>31262.232478</v>
+        <v>31262.232478000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.683953</v>
+        <v>8.6839530000000007</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.010000</v>
+        <v>1260.01</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.590000</v>
+        <v>-138.59</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>31273.226799</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.687007</v>
+        <v>8.6870069999999995</v>
       </c>
       <c r="BF9" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.296000</v>
+        <v>-221.29599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>31284.459728</v>
+        <v>31284.459728000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.690128</v>
+        <v>8.6901279999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.160000</v>
+        <v>1369.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.519000</v>
+        <v>-359.51900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>31295.403954</v>
+        <v>31295.403954000001</v>
       </c>
       <c r="BO9" s="1">
         <v>8.693168</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-585.129000</v>
+        <v>-585.12900000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>31305.858595</v>
+        <v>31305.858595000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.696072</v>
+        <v>8.6960719999999991</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.270000</v>
+        <v>1616.27</v>
       </c>
       <c r="BV9" s="1">
-        <v>-840.816000</v>
+        <v>-840.81600000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>31317.037461</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.699177</v>
+        <v>8.6991770000000006</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1118.060000</v>
+        <v>-1118.06</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>31328.965253</v>
+        <v>31328.965252999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.702490</v>
+        <v>8.7024899999999992</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.170000</v>
+        <v>2190.17</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1794.940000</v>
+        <v>-1794.94</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>31157.718015</v>
+        <v>31157.718014999999</v>
       </c>
       <c r="B10" s="1">
-        <v>8.654922</v>
+        <v>8.6549219999999991</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.400000</v>
+        <v>1149.4000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.823000</v>
+        <v>-261.82299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>31168.112635</v>
+        <v>31168.112635000001</v>
       </c>
       <c r="G10" s="1">
-        <v>8.657809</v>
+        <v>8.6578090000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>1171.900000</v>
+        <v>1171.9000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.796000</v>
+        <v>-219.79599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>31178.567836</v>
+        <v>31178.567835999998</v>
       </c>
       <c r="L10" s="1">
-        <v>8.660713</v>
+        <v>8.6607129999999994</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.570000</v>
+        <v>1199.57</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.286000</v>
+        <v>-152.286</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>31189.110766</v>
+        <v>31189.110766000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.663642</v>
+        <v>8.6636419999999994</v>
       </c>
       <c r="R10" s="1">
-        <v>1207.650000</v>
+        <v>1207.6500000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.951000</v>
+        <v>-129.95099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>31199.986253</v>
+        <v>31199.986252999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.666663</v>
+        <v>8.6666629999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1214.890000</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.613000</v>
+        <v>-108.613</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>31210.199697</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.669500</v>
+        <v>8.6694999999999993</v>
       </c>
       <c r="AB10" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.257700</v>
+        <v>-91.2577</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>31220.439605</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.672344</v>
+        <v>8.6723440000000007</v>
       </c>
       <c r="AG10" s="1">
-        <v>1226.960000</v>
+        <v>1226.96</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.535400</v>
+        <v>-86.535399999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>31230.600228</v>
+        <v>31230.600227999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.675167</v>
+        <v>8.6751670000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.723300</v>
+        <v>-89.723299999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>31241.274522</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.678132</v>
+        <v>8.6781319999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.615000</v>
+        <v>-101.61499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>31251.948955</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.681097</v>
+        <v>8.6810969999999994</v>
       </c>
       <c r="AV10" s="1">
-        <v>1251.680000</v>
+        <v>1251.68</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.024000</v>
+        <v>-121.024</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>31262.647386</v>
+        <v>31262.647386000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.684069</v>
+        <v>8.6840689999999991</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.613000</v>
+        <v>-138.613</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>31273.685598</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.687135</v>
+        <v>8.6871349999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.299000</v>
+        <v>-221.29900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>31284.864471</v>
+        <v>31284.864471000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.690240</v>
+        <v>8.6902399999999993</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.550000</v>
+        <v>-359.55</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>31295.801714</v>
+        <v>31295.801714000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.693278</v>
+        <v>8.6932779999999994</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-585.148000</v>
+        <v>-585.14800000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>31306.284660</v>
+        <v>31306.284660000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.696190</v>
+        <v>8.6961899999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.950000</v>
+        <v>1615.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-840.726000</v>
+        <v>-840.726</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>31317.461012</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.699295</v>
+        <v>8.6992949999999993</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1768.980000</v>
+        <v>1768.98</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1118.220000</v>
+        <v>-1118.22</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>31329.504868</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.702640</v>
+        <v>8.7026400000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.820000</v>
+        <v>2191.8200000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1793.310000</v>
+        <v>-1793.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>31158.056562</v>
+        <v>31158.056562000002</v>
       </c>
       <c r="B11" s="1">
-        <v>8.655016</v>
+        <v>8.6550159999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.640000</v>
+        <v>1149.6400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.687000</v>
+        <v>-261.68700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>31168.456363</v>
+        <v>31168.456363000001</v>
       </c>
       <c r="G11" s="1">
-        <v>8.657905</v>
+        <v>8.6579049999999995</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.100000</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.217000</v>
+        <v>-219.21700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>31179.263690</v>
+        <v>31179.26369</v>
       </c>
       <c r="L11" s="1">
-        <v>8.660907</v>
+        <v>8.6609069999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.571000</v>
+        <v>-152.571</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>31189.804669</v>
+        <v>31189.804669000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.663835</v>
+        <v>8.6638350000000006</v>
       </c>
       <c r="R11" s="1">
-        <v>1207.630000</v>
+        <v>1207.6300000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.020000</v>
+        <v>-130.02000000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>31200.329807</v>
+        <v>31200.329806999998</v>
       </c>
       <c r="V11" s="1">
-        <v>8.666758</v>
+        <v>8.6667579999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.693000</v>
+        <v>-108.693</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>31210.547889</v>
+        <v>31210.547889000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.669597</v>
+        <v>8.6695969999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1222.330000</v>
+        <v>1222.33</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.147300</v>
+        <v>-91.147300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>31220.781812</v>
+        <v>31220.781812000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.672439</v>
+        <v>8.6724390000000007</v>
       </c>
       <c r="AG11" s="1">
-        <v>1226.970000</v>
+        <v>1226.97</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.518400</v>
+        <v>-86.5184</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>31231.262775</v>
+        <v>31231.262774999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.675351</v>
+        <v>8.6753509999999991</v>
       </c>
       <c r="AL11" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.695300</v>
+        <v>-89.695300000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>31241.687194</v>
+        <v>31241.687193999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.678246</v>
+        <v>8.6782459999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>31252.367050</v>
+        <v>31252.367050000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.681213</v>
+        <v>8.6812129999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>31263.033020</v>
+        <v>31263.033019999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.684176</v>
+        <v>8.6841760000000008</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.584000</v>
+        <v>-138.584</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>31274.046685</v>
+        <v>31274.046685000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.687235</v>
+        <v>8.6872349999999994</v>
       </c>
       <c r="BF11" s="1">
-        <v>1299.820000</v>
+        <v>1299.82</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.287000</v>
+        <v>-221.28700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>31285.239407</v>
+        <v>31285.239407000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.690344</v>
+        <v>8.6903439999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.130000</v>
+        <v>1369.13</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.449000</v>
+        <v>-359.44900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>31296.221360</v>
+        <v>31296.22136</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.693395</v>
+        <v>8.6933950000000006</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-585.160000</v>
+        <v>-585.16</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>31307.129345</v>
+        <v>31307.129345000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.696425</v>
+        <v>8.6964249999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV11" s="1">
-        <v>-840.741000</v>
+        <v>-840.74099999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>31317.883146</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.699412</v>
+        <v>8.6994120000000006</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1118.260000</v>
+        <v>-1118.26</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>31330.047987</v>
+        <v>31330.047987000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.702791</v>
+        <v>8.7027909999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>2189.440000</v>
+        <v>2189.44</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1793.410000</v>
+        <v>-1793.41</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>31158.741255</v>
+        <v>31158.741255000001</v>
       </c>
       <c r="B12" s="1">
-        <v>8.655206</v>
+        <v>8.6552059999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.665000</v>
+        <v>-261.66500000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>31169.149770</v>
+        <v>31169.14977</v>
       </c>
       <c r="G12" s="1">
-        <v>8.658097</v>
+        <v>8.6580969999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.360000</v>
+        <v>1171.3599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.983000</v>
+        <v>-219.983</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>31179.607419</v>
       </c>
       <c r="L12" s="1">
-        <v>8.661002</v>
+        <v>8.6610019999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1199.690000</v>
+        <v>1199.69</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.300000</v>
+        <v>-152.30000000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>31190.168276</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.663936</v>
+        <v>8.6639359999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>1207.600000</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.026000</v>
+        <v>-130.02600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>31200.675521</v>
+        <v>31200.675521000001</v>
       </c>
       <c r="V12" s="1">
-        <v>8.666854</v>
+        <v>8.6668540000000007</v>
       </c>
       <c r="W12" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>31211.205089</v>
+        <v>31211.205088999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.669779</v>
+        <v>8.6697790000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.283000</v>
+        <v>-91.283000000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>31221.433059</v>
+        <v>31221.433058999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.672620</v>
+        <v>8.6726200000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.540700</v>
+        <v>-86.540700000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>31231.645189</v>
+        <v>31231.645188999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.675457</v>
+        <v>8.6754569999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.718200</v>
+        <v>-89.718199999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>31242.071592</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.678353</v>
+        <v>8.6783529999999995</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.627000</v>
+        <v>-101.627</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>31252.760912</v>
+        <v>31252.760912000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.681322</v>
+        <v>8.6813219999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.041000</v>
+        <v>-121.041</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>31263.394604</v>
+        <v>31263.394604000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.684276</v>
+        <v>8.6842760000000006</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.610000</v>
+        <v>-138.61000000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>31274.465309</v>
+        <v>31274.465308999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.687351</v>
+        <v>8.6873509999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1299.780000</v>
+        <v>1299.78</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.286000</v>
+        <v>-221.286</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>31285.660016</v>
+        <v>31285.660016000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.690461</v>
+        <v>8.6904610000000009</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.470000</v>
+        <v>-359.47</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>31296.618128</v>
+        <v>31296.618127999998</v>
       </c>
       <c r="BO12" s="1">
         <v>8.693505</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-585.162000</v>
+        <v>-585.16200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>31307.559873</v>
+        <v>31307.559872999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.696544</v>
+        <v>8.6965439999999994</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.670000</v>
+        <v>1615.67</v>
       </c>
       <c r="BV12" s="1">
-        <v>-840.578000</v>
+        <v>-840.57799999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>31318.308949</v>
+        <v>31318.308948999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.699530</v>
+        <v>8.6995299999999993</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.140000</v>
+        <v>1769.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1118.250000</v>
+        <v>-1118.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>31330.585686</v>
+        <v>31330.585685999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.702940</v>
+        <v>8.7029399999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2191.480000</v>
+        <v>2191.48</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1794.750000</v>
+        <v>-1794.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>31159.083957</v>
+        <v>31159.083956999999</v>
       </c>
       <c r="B13" s="1">
-        <v>8.655301</v>
+        <v>8.6553009999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.609000</v>
+        <v>-261.60899999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>31169.497465</v>
       </c>
       <c r="G13" s="1">
-        <v>8.658194</v>
+        <v>8.6581939999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1171.170000</v>
+        <v>1171.17</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.234000</v>
+        <v>-219.23400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>31179.954782</v>
+        <v>31179.954782000001</v>
       </c>
       <c r="L13" s="1">
-        <v>8.661099</v>
+        <v>8.6610990000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1199.770000</v>
+        <v>1199.77</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.396000</v>
+        <v>-152.39599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>31190.821503</v>
+        <v>31190.821502999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.664117</v>
+        <v>8.6641169999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>1207.530000</v>
+        <v>1207.53</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.023000</v>
+        <v>-130.023</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>31201.327230</v>
+        <v>31201.327229999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.667035</v>
+        <v>8.6670350000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.661000</v>
+        <v>-108.661</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>31211.592433</v>
+        <v>31211.592433000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.669887</v>
+        <v>8.6698869999999992</v>
       </c>
       <c r="AB13" s="1">
-        <v>1222.350000</v>
+        <v>1222.3499999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.181300</v>
+        <v>-91.181299999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>31221.804066</v>
+        <v>31221.804066000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.672723</v>
+        <v>8.6727229999999995</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.930000</v>
+        <v>1226.93</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.524800</v>
+        <v>-86.524799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>31231.993381</v>
@@ -3413,422 +3829,422 @@
         <v>8.675554</v>
       </c>
       <c r="AL13" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.724800</v>
+        <v>-89.724800000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>31242.429703</v>
+        <v>31242.429703000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.678453</v>
+        <v>8.6784529999999993</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1241.850000</v>
+        <v>1241.8499999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.618000</v>
+        <v>-101.61799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>31253.128441</v>
+        <v>31253.128441000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.681425</v>
+        <v>8.6814250000000008</v>
       </c>
       <c r="AV13" s="1">
-        <v>1251.650000</v>
+        <v>1251.6500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.009000</v>
+        <v>-121.009</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>31263.824139</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.684396</v>
+        <v>8.6843959999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.626000</v>
+        <v>-138.626</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>31274.769357</v>
+        <v>31274.769357000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.687436</v>
+        <v>8.6874359999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.290000</v>
+        <v>-221.29</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>31286.017185</v>
+        <v>31286.017185000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.690560</v>
+        <v>8.6905599999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.515000</v>
+        <v>-359.51499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>31297.044395</v>
+        <v>31297.044395000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.693623</v>
+        <v>8.6936230000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-585.114000</v>
+        <v>-585.11400000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>31307.988446</v>
+        <v>31307.988445999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.696663</v>
+        <v>8.6966629999999991</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.560000</v>
+        <v>1615.56</v>
       </c>
       <c r="BV13" s="1">
-        <v>-840.428000</v>
+        <v>-840.428</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>31318.726339</v>
+        <v>31318.726339000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.699646</v>
+        <v>8.6996459999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.050000</v>
+        <v>1769.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1118.100000</v>
+        <v>-1118.0999999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>31331.127283</v>
+        <v>31331.127283000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.703091</v>
+        <v>8.7030910000000006</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.420000</v>
+        <v>2191.42</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1791.900000</v>
+        <v>-1791.9</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>31159.420741</v>
+        <v>31159.420741000002</v>
       </c>
       <c r="B14" s="1">
-        <v>8.655395</v>
+        <v>8.6553950000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.230000</v>
+        <v>1149.23</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.440000</v>
+        <v>-261.44</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>31169.830811</v>
       </c>
       <c r="G14" s="1">
-        <v>8.658286</v>
+        <v>8.6582860000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.370000</v>
+        <v>1171.3699999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.324000</v>
+        <v>-219.32400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>31180.608346</v>
+        <v>31180.608346000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.661280</v>
+        <v>8.6612799999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.610000</v>
+        <v>1199.6099999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.777000</v>
+        <v>-152.77699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>31191.211355</v>
+        <v>31191.211354999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.664225</v>
+        <v>8.6642250000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.959000</v>
+        <v>-129.959</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>31201.705677</v>
+        <v>31201.705677000002</v>
       </c>
       <c r="V14" s="1">
-        <v>8.667140</v>
+        <v>8.6671399999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.586000</v>
+        <v>-108.586</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>31211.941120</v>
+        <v>31211.94112</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.669984</v>
+        <v>8.6699839999999995</v>
       </c>
       <c r="AB14" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.219800</v>
+        <v>-91.219800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>31222.158706</v>
+        <v>31222.158705999998</v>
       </c>
       <c r="AF14" s="1">
         <v>8.672822</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.524900</v>
+        <v>-86.524900000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>31232.343556</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.675651</v>
+        <v>8.6756510000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.752800</v>
+        <v>-89.752799999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>31242.846838</v>
+        <v>31242.846838000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.678569</v>
+        <v>8.6785689999999995</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.649000</v>
+        <v>-101.649</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>31253.547580</v>
+        <v>31253.547579999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.681541</v>
+        <v>8.6815409999999993</v>
       </c>
       <c r="AV14" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.016000</v>
+        <v>-121.01600000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>31264.111322</v>
+        <v>31264.111322000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.684475</v>
+        <v>8.6844750000000008</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.597000</v>
+        <v>-138.59700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>31275.129948</v>
+        <v>31275.129948000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.687536</v>
+        <v>8.6875359999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.280000</v>
+        <v>-221.28</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>31286.391119</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.690664</v>
+        <v>8.6906639999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.160000</v>
+        <v>1369.16</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.544000</v>
+        <v>-359.54399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>31297.440992</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.693734</v>
+        <v>8.6937339999999992</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.570000</v>
+        <v>1483.57</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-585.153000</v>
+        <v>-585.15300000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>31308.412529</v>
+        <v>31308.412529000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.696781</v>
+        <v>8.6967809999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.460000</v>
+        <v>1615.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-840.322000</v>
+        <v>-840.322</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>31319.176211</v>
+        <v>31319.176211000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.699771</v>
+        <v>8.6997710000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.060000</v>
+        <v>1769.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1118.310000</v>
+        <v>-1118.31</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>31331.663953</v>
+        <v>31331.663952999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.703240</v>
+        <v>8.7032399999999992</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.580000</v>
+        <v>2189.58</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1794.630000</v>
+        <v>-1794.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>31160.085380</v>
+        <v>31160.08538</v>
       </c>
       <c r="B15" s="1">
-        <v>8.655579</v>
+        <v>8.6555789999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.750000</v>
+        <v>1149.75</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.388000</v>
+        <v>-261.38799999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>31170.507318</v>
@@ -3837,1917 +4253,1917 @@
         <v>8.658474</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.060000</v>
+        <v>1171.06</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.594000</v>
+        <v>-219.59399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>31180.991754</v>
+        <v>31180.991753999999</v>
       </c>
       <c r="L15" s="1">
-        <v>8.661387</v>
+        <v>8.6613869999999995</v>
       </c>
       <c r="M15" s="1">
-        <v>1199.700000</v>
+        <v>1199.7</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.586000</v>
+        <v>-152.58600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>31191.560543</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.664322</v>
+        <v>8.6643220000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.981000</v>
+        <v>-129.98099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>31202.046461</v>
+        <v>31202.046461000002</v>
       </c>
       <c r="V15" s="1">
-        <v>8.667235</v>
+        <v>8.6672349999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.702000</v>
+        <v>-108.702</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>31212.289840</v>
+        <v>31212.289840000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.670081</v>
+        <v>8.6700809999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>1222.390000</v>
+        <v>1222.3900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.200200</v>
+        <v>-91.200199999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>31222.505907</v>
+        <v>31222.505906999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.672918</v>
+        <v>8.6729179999999992</v>
       </c>
       <c r="AG15" s="1">
-        <v>1226.980000</v>
+        <v>1226.98</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.544500</v>
+        <v>-86.544499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>31232.772160</v>
+        <v>31232.77216</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.675770</v>
+        <v>8.67577</v>
       </c>
       <c r="AL15" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.723000</v>
+        <v>-89.722999999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>31243.152911</v>
+        <v>31243.152911000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.678654</v>
+        <v>8.6786539999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.635000</v>
+        <v>-101.63500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>31253.856040</v>
+        <v>31253.856039999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.681627</v>
+        <v>8.6816270000000006</v>
       </c>
       <c r="AV15" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.997000</v>
+        <v>-120.997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>31264.469930</v>
+        <v>31264.469929999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.684575</v>
+        <v>8.6845750000000006</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.000000</v>
+        <v>1260</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.606000</v>
+        <v>-138.60599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>31275.488588</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.687636</v>
+        <v>8.6876359999999995</v>
       </c>
       <c r="BF15" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.283000</v>
+        <v>-221.28299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>31286.767581</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.690769</v>
+        <v>8.6907689999999995</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.120000</v>
+        <v>1369.12</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.519000</v>
+        <v>-359.51900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>31297.864575</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.693851</v>
+        <v>8.6938510000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.570000</v>
+        <v>1483.57</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-585.126000</v>
+        <v>-585.12599999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>31308.834593</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.696898</v>
+        <v>8.6968979999999991</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.560000</v>
+        <v>1615.56</v>
       </c>
       <c r="BV15" s="1">
-        <v>-840.110000</v>
+        <v>-840.11</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>31319.595325</v>
+        <v>31319.595324999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.699888</v>
+        <v>8.6998879999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1118.280000</v>
+        <v>-1118.28</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>31332.206609</v>
+        <v>31332.206609000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.703391</v>
+        <v>8.7033909999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.980000</v>
+        <v>2191.98</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1794.190000</v>
+        <v>-1794.19</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>31160.445016</v>
+        <v>31160.445016000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.655679</v>
+        <v>8.6556789999999992</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.560000</v>
+        <v>1149.56</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.393000</v>
+        <v>-261.39299999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>31170.872911</v>
+        <v>31170.872910999999</v>
       </c>
       <c r="G16" s="1">
-        <v>8.658576</v>
+        <v>8.6585760000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.950000</v>
+        <v>1171.95</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.929000</v>
+        <v>-219.929</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>31181.334984</v>
+        <v>31181.334984000001</v>
       </c>
       <c r="L16" s="1">
-        <v>8.661482</v>
+        <v>8.6614819999999995</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.460000</v>
+        <v>1199.46</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.290000</v>
+        <v>-152.29</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>31191.910682</v>
+        <v>31191.910682000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.664420</v>
+        <v>8.6644199999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1207.630000</v>
+        <v>1207.6300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.027000</v>
+        <v>-130.02699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>31202.390188</v>
+        <v>31202.390188000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.667331</v>
+        <v>8.6673310000000008</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.970000</v>
+        <v>1214.97</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.676000</v>
+        <v>-108.676</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>31212.703472</v>
+        <v>31212.703472000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.670195</v>
+        <v>8.6701949999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1222.320000</v>
+        <v>1222.32</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.272900</v>
+        <v>-91.272900000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>31222.960738</v>
+        <v>31222.960738000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.673045</v>
+        <v>8.6730450000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1226.950000</v>
+        <v>1226.95</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.537700</v>
+        <v>-86.537700000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>31233.051384</v>
+        <v>31233.051383999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.675848</v>
+        <v>8.6758480000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1233.990000</v>
+        <v>1233.99</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.744500</v>
+        <v>-89.744500000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>31243.513959</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.678754</v>
+        <v>8.6787539999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.646000</v>
+        <v>-101.646</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>31254.221591</v>
+        <v>31254.221591000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.681728</v>
+        <v>8.6817279999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1251.690000</v>
+        <v>1251.69</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.041000</v>
+        <v>-121.041</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>31264.826586</v>
+        <v>31264.826585999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.684674</v>
+        <v>8.6846739999999993</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.599000</v>
+        <v>-138.59899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>31276.218172</v>
+        <v>31276.218172000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.687838</v>
+        <v>8.6878379999999993</v>
       </c>
       <c r="BF16" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.269000</v>
+        <v>-221.26900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>31287.517035</v>
+        <v>31287.517035000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.690977</v>
+        <v>8.6909770000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.170000</v>
+        <v>1369.17</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.489000</v>
+        <v>-359.48899999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>31298.255921</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.693960</v>
+        <v>8.6939600000000006</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-585.161000</v>
+        <v>-585.16099999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>31309.256192</v>
+        <v>31309.256192000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.697016</v>
+        <v>8.6970159999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.580000</v>
+        <v>1615.58</v>
       </c>
       <c r="BV16" s="1">
-        <v>-839.999000</v>
+        <v>-839.99900000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>31320.018913</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.700005</v>
+        <v>8.7000050000000009</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1118.250000</v>
+        <v>-1118.25</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>31333.055768</v>
+        <v>31333.055767999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.703627</v>
+        <v>8.7036269999999991</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.230000</v>
+        <v>2190.23</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1794.380000</v>
+        <v>-1794.38</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>31160.788708</v>
       </c>
       <c r="B17" s="1">
-        <v>8.655775</v>
+        <v>8.6557750000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.590000</v>
+        <v>1149.5899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.498000</v>
+        <v>-261.49799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>31171.218085</v>
       </c>
       <c r="G17" s="1">
-        <v>8.658672</v>
+        <v>8.6586719999999993</v>
       </c>
       <c r="H17" s="1">
-        <v>1171.870000</v>
+        <v>1171.8699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.627000</v>
+        <v>-219.62700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>31181.685159</v>
+        <v>31181.685159000001</v>
       </c>
       <c r="L17" s="1">
-        <v>8.661579</v>
+        <v>8.6615789999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.960000</v>
+        <v>1199.96</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.280000</v>
+        <v>-152.28</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>31192.315449</v>
+        <v>31192.315449000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.664532</v>
+        <v>8.6645319999999995</v>
       </c>
       <c r="R17" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.000000</v>
+        <v>-130</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>31202.810796</v>
+        <v>31202.810796000002</v>
       </c>
       <c r="V17" s="1">
-        <v>8.667447</v>
+        <v>8.6674469999999992</v>
       </c>
       <c r="W17" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.689000</v>
+        <v>-108.68899999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>31212.999123</v>
+        <v>31212.999123000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.670278</v>
+        <v>8.6702779999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>1222.330000</v>
+        <v>1222.33</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.164700</v>
+        <v>-91.164699999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>31223.221633</v>
+        <v>31223.221633000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.673117</v>
+        <v>8.6731169999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.010000</v>
+        <v>1227.01</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.542800</v>
+        <v>-86.5428</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>31233.398051</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.675944</v>
+        <v>8.6759439999999994</v>
       </c>
       <c r="AL17" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.745700</v>
+        <v>-89.745699999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>31243.872565</v>
+        <v>31243.872565000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.678853</v>
+        <v>8.6788530000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>31254.586153</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.681829</v>
+        <v>8.6818290000000005</v>
       </c>
       <c r="AV17" s="1">
-        <v>1251.690000</v>
+        <v>1251.69</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.013000</v>
+        <v>-121.01300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>31265.552201</v>
+        <v>31265.552200999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.684876</v>
+        <v>8.6848759999999992</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.626000</v>
+        <v>-138.626</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>31276.598108</v>
+        <v>31276.598107999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.687944</v>
+        <v>8.6879439999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.322000</v>
+        <v>-221.322</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>31287.892011</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.691081</v>
+        <v>8.6910810000000005</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.180000</v>
+        <v>1369.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.508000</v>
+        <v>-359.50799999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>31298.679501</v>
+        <v>31298.679500999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.694078</v>
+        <v>8.6940779999999993</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-585.125000</v>
+        <v>-585.125</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>31309.976382</v>
+        <v>31309.976382000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.697216</v>
+        <v>8.6972159999999992</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-839.823000</v>
+        <v>-839.82299999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>31320.774324</v>
+        <v>31320.774324000002</v>
       </c>
       <c r="BY17" s="1">
         <v>8.700215</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1118.130000</v>
+        <v>-1118.1300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>31333.284880</v>
+        <v>31333.284879999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.703690</v>
+        <v>8.7036899999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2190.110000</v>
+        <v>2190.11</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1794.550000</v>
+        <v>-1794.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>31161.131479</v>
       </c>
       <c r="B18" s="1">
-        <v>8.655870</v>
+        <v>8.6558700000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.560000</v>
+        <v>1149.56</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.659000</v>
+        <v>-261.65899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>31171.564325</v>
+        <v>31171.564324999999</v>
       </c>
       <c r="G18" s="1">
-        <v>8.658768</v>
+        <v>8.6587680000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.820000</v>
+        <v>1171.82</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.469000</v>
+        <v>-219.46899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>31182.101335</v>
+        <v>31182.101334999999</v>
       </c>
       <c r="L18" s="1">
-        <v>8.661695</v>
+        <v>8.6616949999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.576000</v>
+        <v>-152.57599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>31192.617518</v>
+        <v>31192.617517999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.664616</v>
+        <v>8.6646160000000005</v>
       </c>
       <c r="R18" s="1">
-        <v>1207.590000</v>
+        <v>1207.5899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.041000</v>
+        <v>-130.041</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>31203.102572</v>
       </c>
       <c r="V18" s="1">
-        <v>8.667528</v>
+        <v>8.6675280000000008</v>
       </c>
       <c r="W18" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.641000</v>
+        <v>-108.64100000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>31213.348269</v>
+        <v>31213.348268999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.670375</v>
+        <v>8.6703749999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1222.400000</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.206200</v>
+        <v>-91.206199999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>31223.553952</v>
+        <v>31223.553951999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.673209</v>
+        <v>8.6732089999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.040000</v>
+        <v>1227.04</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.504000</v>
+        <v>-86.504000000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>31233.750740</v>
+        <v>31233.750739999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.676042</v>
+        <v>8.6760420000000007</v>
       </c>
       <c r="AL18" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.720800</v>
+        <v>-89.720799999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>31244.591800</v>
+        <v>31244.591799999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.679053</v>
+        <v>8.6790529999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.655000</v>
+        <v>-101.655</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>31255.318742</v>
+        <v>31255.318741999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.682033</v>
+        <v>8.6820330000000006</v>
       </c>
       <c r="AV18" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.047000</v>
+        <v>-121.047</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>31265.928699</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.684980</v>
+        <v>8.6849799999999995</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.583000</v>
+        <v>-138.583</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>31276.956715</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.688044</v>
+        <v>8.6880439999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1299.790000</v>
+        <v>1299.79</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.294000</v>
+        <v>-221.29400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>31288.266528</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.691185</v>
+        <v>8.6911850000000008</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.170000</v>
+        <v>1369.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.522000</v>
+        <v>-359.52199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>31299.393740</v>
+        <v>31299.39374</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.694276</v>
+        <v>8.6942760000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-585.133000</v>
+        <v>-585.13300000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>31310.102365</v>
+        <v>31310.102364999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.697251</v>
+        <v>8.6972509999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.940000</v>
+        <v>1615.94</v>
       </c>
       <c r="BV18" s="1">
-        <v>-839.716000</v>
+        <v>-839.71600000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>31320.897792</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.700249</v>
+        <v>8.7002489999999995</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.270000</v>
+        <v>1769.27</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1118.190000</v>
+        <v>-1118.19</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>31333.804718</v>
+        <v>31333.804717999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.703835</v>
+        <v>8.7038349999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1794.280000</v>
+        <v>-1794.28</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>31161.562962</v>
       </c>
       <c r="B19" s="1">
-        <v>8.655990</v>
+        <v>8.6559899999999992</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.696000</v>
+        <v>-261.69600000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>31171.999285</v>
+        <v>31171.999285000002</v>
       </c>
       <c r="G19" s="1">
-        <v>8.658889</v>
+        <v>8.6588890000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.900000</v>
+        <v>1170.9000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.518000</v>
+        <v>-219.518</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>31182.397416</v>
       </c>
       <c r="L19" s="1">
-        <v>8.661777</v>
+        <v>8.6617770000000007</v>
       </c>
       <c r="M19" s="1">
-        <v>1199.490000</v>
+        <v>1199.49</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.591000</v>
+        <v>-152.59100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>31192.960713</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.664711</v>
+        <v>8.6647110000000005</v>
       </c>
       <c r="R19" s="1">
-        <v>1207.560000</v>
+        <v>1207.56</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.032000</v>
+        <v>-130.03200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>31203.442172</v>
+        <v>31203.442171999999</v>
       </c>
       <c r="V19" s="1">
-        <v>8.667623</v>
+        <v>8.6676230000000007</v>
       </c>
       <c r="W19" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.716000</v>
+        <v>-108.71599999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>31213.694973</v>
+        <v>31213.694973000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.670471</v>
+        <v>8.6704709999999992</v>
       </c>
       <c r="AB19" s="1">
-        <v>1222.340000</v>
+        <v>1222.3399999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.187100</v>
+        <v>-91.187100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>31224.237474</v>
+        <v>31224.237474000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.673399</v>
+        <v>8.6733989999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1226.980000</v>
+        <v>1226.98</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.471300</v>
+        <v>-86.471299999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31234.444150</v>
+        <v>31234.444149999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.676234</v>
+        <v>8.6762339999999991</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.000000</v>
+        <v>1234</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.720300</v>
+        <v>-89.720299999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>31244.953845</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.679154</v>
+        <v>8.6791540000000005</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.646000</v>
+        <v>-101.646</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>31255.701656</v>
+        <v>31255.701656000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.682139</v>
+        <v>8.6821389999999994</v>
       </c>
       <c r="AV19" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.053000</v>
+        <v>-121.053</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>31266.309128</v>
+        <v>31266.309128000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.685086</v>
+        <v>8.6850860000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.606000</v>
+        <v>-138.60599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>31277.622344</v>
+        <v>31277.622343999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.688228</v>
+        <v>8.6882280000000005</v>
       </c>
       <c r="BF19" s="1">
-        <v>1299.810000</v>
+        <v>1299.81</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.285000</v>
+        <v>-221.285</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>31288.955434</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.691377</v>
+        <v>8.6913769999999992</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.160000</v>
+        <v>1369.16</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.499000</v>
+        <v>-359.49900000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>31299.503392</v>
+        <v>31299.503391999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.694306</v>
+        <v>8.6943059999999992</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-585.198000</v>
+        <v>-585.19799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>31310.539341</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.697372</v>
+        <v>8.6973719999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.210000</v>
+        <v>1616.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-839.741000</v>
+        <v>-839.74099999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>31321.336759</v>
+        <v>31321.336759000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.700371</v>
+        <v>8.7003710000000005</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.040000</v>
+        <v>1769.04</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1118.060000</v>
+        <v>-1118.06</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>31334.324225</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.703979</v>
+        <v>8.7039790000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.450000</v>
+        <v>2191.4499999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1795.160000</v>
+        <v>-1795.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>31161.831794</v>
+        <v>31161.831794000002</v>
       </c>
       <c r="B20" s="1">
-        <v>8.656064</v>
+        <v>8.6560640000000006</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.480000</v>
+        <v>1149.48</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.891000</v>
+        <v>-261.89100000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>31172.256212</v>
       </c>
       <c r="G20" s="1">
-        <v>8.658960</v>
+        <v>8.6589600000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.446000</v>
+        <v>-219.446</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>31182.740678</v>
+        <v>31182.740677999998</v>
       </c>
       <c r="L20" s="1">
-        <v>8.661872</v>
+        <v>8.6618720000000007</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.531000</v>
+        <v>-152.53100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>31193.313368</v>
+        <v>31193.313367999999</v>
       </c>
       <c r="Q20" s="1">
         <v>8.664809</v>
       </c>
       <c r="R20" s="1">
-        <v>1207.610000</v>
+        <v>1207.6099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.909000</v>
+        <v>-129.90899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>31203.788874</v>
+        <v>31203.788874000002</v>
       </c>
       <c r="V20" s="1">
         <v>8.667719</v>
       </c>
       <c r="W20" s="1">
-        <v>1215.010000</v>
+        <v>1215.01</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.660000</v>
+        <v>-108.66</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>31214.392844</v>
+        <v>31214.392844000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.670665</v>
+        <v>8.6706649999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>1222.390000</v>
+        <v>1222.3900000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.263700</v>
+        <v>-91.2637</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>31224.581696</v>
+        <v>31224.581696000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.673495</v>
+        <v>8.6734950000000008</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.990000</v>
+        <v>1226.99</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.523700</v>
+        <v>-86.523700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>31234.789825</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.676331</v>
+        <v>8.6763309999999993</v>
       </c>
       <c r="AL20" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.714600</v>
+        <v>-89.714600000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>31245.315432</v>
+        <v>31245.315431999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.679254</v>
+        <v>8.6792540000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1241.840000</v>
+        <v>1241.8399999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.629000</v>
+        <v>-101.629</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>31256.066215</v>
+        <v>31256.066214999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.682241</v>
+        <v>8.6822409999999994</v>
       </c>
       <c r="AV20" s="1">
-        <v>1251.650000</v>
+        <v>1251.6500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.991000</v>
+        <v>-120.991</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>31266.980213</v>
+        <v>31266.980212999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.685272</v>
+        <v>8.6852719999999994</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.060000</v>
+        <v>1260.06</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.587000</v>
+        <v>-138.58699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>31278.075192</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.688354</v>
+        <v>8.6883540000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1299.820000</v>
+        <v>1299.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.283000</v>
+        <v>-221.28299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>31289.392442</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.691498</v>
+        <v>8.6914979999999993</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.528000</v>
+        <v>-359.52800000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>31299.920036</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.694422</v>
+        <v>8.6944219999999994</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.560000</v>
+        <v>1483.56</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-585.138000</v>
+        <v>-585.13800000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>31310.966894</v>
+        <v>31310.966894000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.697491</v>
+        <v>8.6974909999999994</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.320000</v>
+        <v>1616.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-839.850000</v>
+        <v>-839.85</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>31321.795550</v>
+        <v>31321.795549999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.700499</v>
+        <v>8.7004990000000006</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.110000</v>
+        <v>1769.11</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>31334.875584</v>
+        <v>31334.875584000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.704132</v>
+        <v>8.7041319999999995</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.530000</v>
+        <v>2189.5300000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1794.400000</v>
+        <v>-1794.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>31162.173047</v>
       </c>
       <c r="B21" s="1">
-        <v>8.656159</v>
+        <v>8.6561590000000006</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.490000</v>
+        <v>1149.49</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.799000</v>
+        <v>-261.79899999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>31172.596963</v>
       </c>
       <c r="G21" s="1">
-        <v>8.659055</v>
+        <v>8.6590550000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.200000</v>
+        <v>1171.2</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.350000</v>
+        <v>-219.35</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>31183.085367</v>
       </c>
       <c r="L21" s="1">
-        <v>8.661968</v>
+        <v>8.6619679999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.720000</v>
+        <v>1199.72</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.761000</v>
+        <v>-152.761</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>31194.012231</v>
+        <v>31194.012231000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.665003</v>
+        <v>8.6650030000000005</v>
       </c>
       <c r="R21" s="1">
-        <v>1207.630000</v>
+        <v>1207.6300000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.986000</v>
+        <v>-129.98599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>31204.472857</v>
+        <v>31204.472857000001</v>
       </c>
       <c r="V21" s="1">
-        <v>8.667909</v>
+        <v>8.6679089999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1214.960000</v>
+        <v>1214.96</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>31214.742556</v>
+        <v>31214.742556000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.670762</v>
+        <v>8.6707619999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.197100</v>
+        <v>-91.197100000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>31224.925390</v>
+        <v>31224.92539</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.673590</v>
+        <v>8.6735900000000008</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.930000</v>
+        <v>1226.93</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.507800</v>
+        <v>-86.507800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>31235.143969</v>
+        <v>31235.143969000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.676429</v>
+        <v>8.6764290000000006</v>
       </c>
       <c r="AL21" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.749000</v>
+        <v>-89.748999999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>31245.988996</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.679441</v>
+        <v>8.6794410000000006</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.628000</v>
+        <v>-101.628</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>31256.501700</v>
+        <v>31256.501700000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.682362</v>
+        <v>8.6823619999999995</v>
       </c>
       <c r="AV21" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.053000</v>
+        <v>-121.053</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>31267.389880</v>
+        <v>31267.389879999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.685386</v>
+        <v>8.6853859999999994</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.595000</v>
+        <v>-138.595</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>31278.434297</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.688454</v>
+        <v>8.6884540000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1299.850000</v>
+        <v>1299.8499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.291000</v>
+        <v>-221.291</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>31289.769369</v>
+        <v>31289.769369000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.691603</v>
+        <v>8.6916030000000006</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.524000</v>
+        <v>-359.524</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>31300.316331</v>
+        <v>31300.316331000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.694532</v>
+        <v>8.6945320000000006</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-585.102000</v>
+        <v>-585.10199999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>31311.397420</v>
+        <v>31311.397420000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.697610</v>
+        <v>8.6976099999999992</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.490000</v>
+        <v>1616.49</v>
       </c>
       <c r="BV21" s="1">
-        <v>-839.915000</v>
+        <v>-839.91499999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>31322.246910</v>
+        <v>31322.246910000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.700624</v>
+        <v>8.7006239999999995</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.140000</v>
+        <v>1769.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1118.180000</v>
+        <v>-1118.18</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>31335.405303</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.704279</v>
+        <v>8.7042789999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.800000</v>
+        <v>2191.8000000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1794.950000</v>
+        <v>-1794.95</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>31162.512305</v>
       </c>
       <c r="B22" s="1">
-        <v>8.656253</v>
+        <v>8.6562529999999995</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.470000</v>
+        <v>1149.47</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.673000</v>
+        <v>-261.673</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>31173.352381</v>
+        <v>31173.352381000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.659265</v>
+        <v>8.6592649999999995</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.260000</v>
+        <v>1172.26</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.989000</v>
+        <v>-219.989</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>31183.783760</v>
+        <v>31183.783759999998</v>
       </c>
       <c r="L22" s="1">
-        <v>8.662162</v>
+        <v>8.6621620000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.020000</v>
+        <v>1200.02</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.529000</v>
+        <v>-152.529</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>31194.358439</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.665100</v>
+        <v>8.6651000000000007</v>
       </c>
       <c r="R22" s="1">
-        <v>1207.690000</v>
+        <v>1207.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.988000</v>
+        <v>-129.988</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>31204.819561</v>
       </c>
       <c r="V22" s="1">
-        <v>8.668005</v>
+        <v>8.6680050000000008</v>
       </c>
       <c r="W22" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.676000</v>
+        <v>-108.676</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>31215.092203</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.670859</v>
+        <v>8.6708590000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.295000</v>
+        <v>-91.295000000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>31225.580109</v>
+        <v>31225.580108999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.673772</v>
+        <v>8.6737719999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.960000</v>
+        <v>1226.96</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.549500</v>
+        <v>-86.549499999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>31235.823490</v>
+        <v>31235.823489999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.676618</v>
+        <v>8.6766179999999995</v>
       </c>
       <c r="AL22" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.718400</v>
+        <v>-89.718400000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>31246.423490</v>
+        <v>31246.423490000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.679562</v>
+        <v>8.6795620000000007</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1241.840000</v>
+        <v>1241.8399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.624000</v>
+        <v>-101.624</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>31256.790868</v>
@@ -5756,255 +6172,255 @@
         <v>8.682442</v>
       </c>
       <c r="AV22" s="1">
-        <v>1251.710000</v>
+        <v>1251.71</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.995000</v>
+        <v>-120.995</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>31267.765349</v>
+        <v>31267.765349000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.685490</v>
+        <v>8.6854899999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.621000</v>
+        <v>-138.62100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>31278.795880</v>
+        <v>31278.795880000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.688554</v>
+        <v>8.6885539999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.292000</v>
+        <v>-221.292</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>31290.335801</v>
+        <v>31290.335801000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.691760</v>
+        <v>8.6917600000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.500000</v>
+        <v>-359.5</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>31300.738426</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.694650</v>
+        <v>8.6946499999999993</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-585.174000</v>
+        <v>-585.17399999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>31311.805133</v>
+        <v>31311.805133000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.697724</v>
+        <v>8.6977239999999991</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.650000</v>
+        <v>1616.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-840.189000</v>
+        <v>-840.18899999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>31322.692814</v>
+        <v>31322.692814000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.700748</v>
+        <v>8.7007480000000008</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1769.200000</v>
+        <v>1769.2</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>31335.924096</v>
+        <v>31335.924095999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.704423</v>
+        <v>8.7044230000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.070000</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1793.070000</v>
+        <v>-1793.07</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>31163.194836</v>
+        <v>31163.194835999999</v>
       </c>
       <c r="B23" s="1">
-        <v>8.656443</v>
+        <v>8.6564429999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.220000</v>
+        <v>1149.22</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.553000</v>
+        <v>-261.553</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>31173.633106</v>
+        <v>31173.633106000001</v>
       </c>
       <c r="G23" s="1">
-        <v>8.659343</v>
+        <v>8.6593429999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.930000</v>
+        <v>1171.93</v>
       </c>
       <c r="I23" s="1">
-        <v>-220.072000</v>
+        <v>-220.072</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>31184.129444</v>
+        <v>31184.129443999998</v>
       </c>
       <c r="L23" s="1">
-        <v>8.662258</v>
+        <v>8.6622579999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.810000</v>
+        <v>1199.81</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.359000</v>
+        <v>-152.35900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>31194.705179</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.665196</v>
+        <v>8.6651959999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1207.640000</v>
+        <v>1207.6400000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.063000</v>
+        <v>-130.06299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>31205.160810</v>
+        <v>31205.160810000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.668100</v>
+        <v>8.6681000000000008</v>
       </c>
       <c r="W23" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.606000</v>
+        <v>-108.60599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>31215.750891</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.671042</v>
+        <v>8.6710419999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1222.310000</v>
+        <v>1222.31</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.182500</v>
+        <v>-91.182500000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>31225.958063</v>
+        <v>31225.958062999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.673877</v>
+        <v>8.6738769999999992</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.970000</v>
+        <v>1226.97</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.477700</v>
+        <v>-86.477699999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>31236.188048</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.676719</v>
+        <v>8.6767190000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.734000</v>
+        <v>-89.733999999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>31246.784577</v>
+        <v>31246.784576999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.679662</v>
+        <v>8.6796620000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.603000</v>
+        <v>-101.60299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>31257.159924</v>
@@ -6013,891 +6429,892 @@
         <v>8.682544</v>
       </c>
       <c r="AV23" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.025000</v>
+        <v>-121.02500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>31268.143301</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.685595</v>
+        <v>8.6855949999999993</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.030000</v>
+        <v>1260.03</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.568000</v>
+        <v>-138.56800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>31279.217975</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.688672</v>
+        <v>8.6886720000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1299.830000</v>
+        <v>1299.83</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.292000</v>
+        <v>-221.292</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>31290.519351</v>
+        <v>31290.519350999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.691811</v>
+        <v>8.6918109999999995</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.521000</v>
+        <v>-359.52100000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>31301.134706</v>
+        <v>31301.134706000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.694760</v>
+        <v>8.6947600000000005</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-585.142000</v>
+        <v>-585.14200000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>31312.238636</v>
+        <v>31312.238635999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.697844</v>
+        <v>8.6978439999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.640000</v>
+        <v>1616.64</v>
       </c>
       <c r="BV23" s="1">
-        <v>-840.354000</v>
+        <v>-840.35400000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>31323.115901</v>
+        <v>31323.115901000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.700866</v>
+        <v>8.7008659999999995</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.210000</v>
+        <v>1769.21</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1118.070000</v>
+        <v>-1118.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>31336.440686</v>
+        <v>31336.440686000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.704567</v>
+        <v>8.7045670000000008</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.810000</v>
+        <v>2189.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1792.760000</v>
+        <v>-1792.76</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>31163.537039</v>
+        <v>31163.537038999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.656538</v>
+        <v>8.6565379999999994</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.675000</v>
+        <v>-261.67500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>31173.976337</v>
       </c>
       <c r="G24" s="1">
-        <v>8.659438</v>
+        <v>8.6594379999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.360000</v>
+        <v>1171.3599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.436000</v>
+        <v>-219.43600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>31184.476644</v>
+        <v>31184.476643999998</v>
       </c>
       <c r="L24" s="1">
-        <v>8.662355</v>
+        <v>8.6623549999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.620000</v>
+        <v>1199.6199999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.562000</v>
+        <v>-152.56200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>31195.365318</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.665379</v>
+        <v>8.6653789999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>1207.600000</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.018000</v>
+        <v>-130.018</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>31205.830903</v>
+        <v>31205.830902999998</v>
       </c>
       <c r="V24" s="1">
-        <v>8.668286</v>
+        <v>8.6682860000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>31216.133802</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.671148</v>
+        <v>8.6711480000000005</v>
       </c>
       <c r="AB24" s="1">
-        <v>1222.460000</v>
+        <v>1222.46</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.201800</v>
+        <v>-91.201800000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>31226.300551</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.673972</v>
+        <v>8.6739719999999991</v>
       </c>
       <c r="AG24" s="1">
-        <v>1227.000000</v>
+        <v>1227</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.488200</v>
+        <v>-86.488200000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>31236.536735</v>
+        <v>31236.536735000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.676816</v>
+        <v>8.6768160000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>1233.980000</v>
+        <v>1233.98</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.742400</v>
+        <v>-89.742400000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>31247.141232</v>
+        <v>31247.141232000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.679761</v>
+        <v>8.6797609999999992</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.645000</v>
+        <v>-101.645</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>31257.600339</v>
+        <v>31257.600339000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.682667</v>
+        <v>8.6826670000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.027000</v>
+        <v>-121.027</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>31268.581295</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.685717</v>
+        <v>8.6857170000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.070000</v>
+        <v>1260.07</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.621000</v>
+        <v>-138.62100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>31279.519047</v>
+        <v>31279.519047000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.688755</v>
+        <v>8.6887550000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1299.800000</v>
+        <v>1299.8</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.278000</v>
+        <v>-221.27799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>31290.914135</v>
+        <v>31290.914134999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.691921</v>
+        <v>8.6919210000000007</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.524000</v>
+        <v>-359.524</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>31301.555833</v>
+        <v>31301.555832999999</v>
       </c>
       <c r="BO24" s="1">
         <v>8.694877</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-585.093000</v>
+        <v>-585.09299999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>31312.648363</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.697958</v>
+        <v>8.6979579999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.440000</v>
+        <v>1616.44</v>
       </c>
       <c r="BV24" s="1">
-        <v>-840.551000</v>
+        <v>-840.55100000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>31323.687293</v>
+        <v>31323.687292999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.701024</v>
+        <v>8.7010240000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.130000</v>
+        <v>1769.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1118.020000</v>
+        <v>-1118.02</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>31336.960234</v>
+        <v>31336.960233999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.704711</v>
+        <v>8.7047109999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.230000</v>
+        <v>2190.23</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1794.930000</v>
+        <v>-1794.93</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>31163.882255</v>
       </c>
       <c r="B25" s="1">
-        <v>8.656634</v>
+        <v>8.6566340000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.640000</v>
+        <v>1149.6400000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.596000</v>
+        <v>-261.596</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>31174.627617</v>
+        <v>31174.627616999998</v>
       </c>
       <c r="G25" s="1">
-        <v>8.659619</v>
+        <v>8.6596189999999993</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.850000</v>
+        <v>1171.8499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.848000</v>
+        <v>-219.84800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>31185.125413</v>
+        <v>31185.125413000002</v>
       </c>
       <c r="L25" s="1">
-        <v>8.662535</v>
+        <v>8.6625350000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.790000</v>
+        <v>1199.79</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.781000</v>
+        <v>-152.78100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>31195.764598</v>
+        <v>31195.764598000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.665490</v>
+        <v>8.6654900000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1207.630000</v>
+        <v>1207.6300000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.952000</v>
+        <v>-129.952</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>31206.204925</v>
+        <v>31206.204924999998</v>
       </c>
       <c r="V25" s="1">
-        <v>8.668390</v>
+        <v>8.6683900000000005</v>
       </c>
       <c r="W25" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.650000</v>
+        <v>-108.65</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>31216.485467</v>
+        <v>31216.485466999999</v>
       </c>
       <c r="AA25" s="1">
         <v>8.671246</v>
       </c>
       <c r="AB25" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.228800</v>
+        <v>-91.228800000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>31226.643073</v>
+        <v>31226.643072999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.674068</v>
+        <v>8.6740680000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.980000</v>
+        <v>1226.98</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.551100</v>
+        <v>-86.551100000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>31236.887408</v>
+        <v>31236.887407999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.676913</v>
+        <v>8.6769130000000008</v>
       </c>
       <c r="AL25" s="1">
-        <v>1233.990000</v>
+        <v>1233.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.734300</v>
+        <v>-89.734300000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>31247.555363</v>
+        <v>31247.555362999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.679876</v>
+        <v>8.6798760000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.630000</v>
+        <v>-101.63</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>31257.889010</v>
+        <v>31257.889009999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.682747</v>
+        <v>8.6827470000000009</v>
       </c>
       <c r="AV25" s="1">
-        <v>1251.670000</v>
+        <v>1251.67</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>31268.862500</v>
+        <v>31268.862499999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.685795</v>
+        <v>8.6857950000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.050000</v>
+        <v>1260.05</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.602000</v>
+        <v>-138.602</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>31279.879697</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.688855</v>
+        <v>8.6888550000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1299.840000</v>
+        <v>1299.8399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.300000</v>
+        <v>-221.3</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>31291.294681</v>
+        <v>31291.294680999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.692026</v>
+        <v>8.6920260000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.150000</v>
+        <v>1369.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.515000</v>
+        <v>-359.51499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>31301.955577</v>
+        <v>31301.955577000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.694988</v>
+        <v>8.6949880000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-585.151000</v>
+        <v>-585.15099999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>31313.077866</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.698077</v>
+        <v>8.6980769999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.440000</v>
+        <v>1616.44</v>
       </c>
       <c r="BV25" s="1">
-        <v>-840.728000</v>
+        <v>-840.72799999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>31323.985883</v>
+        <v>31323.985883000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.701107</v>
+        <v>8.7011070000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.060000</v>
+        <v>1769.06</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1118.050000</v>
+        <v>-1118.05</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>31337.476106</v>
+        <v>31337.476105999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.704854</v>
+        <v>8.7048539999999992</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.840000</v>
+        <v>2191.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1794.650000</v>
+        <v>-1794.65</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>31164.533999</v>
+        <v>31164.533998999999</v>
       </c>
       <c r="B26" s="1">
-        <v>8.656815</v>
+        <v>8.6568149999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.300000</v>
+        <v>1149.3</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.590000</v>
+        <v>-261.58999999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>31175.012978</v>
+        <v>31175.012977999999</v>
       </c>
       <c r="G26" s="1">
-        <v>8.659726</v>
+        <v>8.6597259999999991</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.445000</v>
+        <v>-219.44499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>31185.515763</v>
+        <v>31185.515762999999</v>
       </c>
       <c r="L26" s="1">
-        <v>8.662643</v>
+        <v>8.6626429999999992</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.800000</v>
+        <v>1199.8</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.328000</v>
+        <v>-152.328</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>31196.101380</v>
+        <v>31196.10138</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.665584</v>
+        <v>8.6655840000000008</v>
       </c>
       <c r="R26" s="1">
-        <v>1207.620000</v>
+        <v>1207.6199999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.008000</v>
+        <v>-130.00800000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>31206.559564</v>
+        <v>31206.559563999999</v>
       </c>
       <c r="V26" s="1">
-        <v>8.668489</v>
+        <v>8.6684889999999992</v>
       </c>
       <c r="W26" s="1">
-        <v>1214.890000</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.764000</v>
+        <v>-108.764</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>31216.835642</v>
+        <v>31216.835641999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.671343</v>
+        <v>8.6713430000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1222.410000</v>
+        <v>1222.4100000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.314000</v>
+        <v>-91.313999999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>31227.061660</v>
+        <v>31227.061659999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.674184</v>
+        <v>8.6741840000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.020000</v>
+        <v>1227.02</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.552700</v>
+        <v>-86.552700000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>31237.314466</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.677032</v>
+        <v>8.6770320000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.020000</v>
+        <v>1234.02</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.686000</v>
+        <v>-89.686000000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>31247.861920</v>
+        <v>31247.861919999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.679962</v>
+        <v>8.6799619999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.636000</v>
+        <v>-101.636</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>31258.253600</v>
+        <v>31258.2536</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.682848</v>
+        <v>8.6828479999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.027000</v>
+        <v>-121.027</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>31269.222101</v>
+        <v>31269.222100999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.685895</v>
+        <v>8.6858950000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.040000</v>
+        <v>1260.04</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.639000</v>
+        <v>-138.63900000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>31280.242742</v>
+        <v>31280.242741999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.688956</v>
+        <v>8.6889559999999992</v>
       </c>
       <c r="BF26" s="1">
-        <v>1299.830000</v>
+        <v>1299.83</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.287000</v>
+        <v>-221.28700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>31292.043559</v>
+        <v>31292.043559000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.692234</v>
+        <v>8.6922339999999991</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.140000</v>
+        <v>1369.14</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.521000</v>
+        <v>-359.52100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>31302.378696</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.695105</v>
+        <v>8.6951049999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-585.188000</v>
+        <v>-585.18799999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>31313.506942</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.698196</v>
+        <v>8.6981959999999994</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.260000</v>
+        <v>1616.26</v>
       </c>
       <c r="BV26" s="1">
-        <v>-840.743000</v>
+        <v>-840.74300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>31324.419883</v>
+        <v>31324.419882999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.701228</v>
+        <v>8.7012280000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1768.990000</v>
+        <v>1768.99</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1118.200000</v>
+        <v>-1118.2</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>31337.997865</v>
+        <v>31337.997865000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.704999</v>
+        <v>8.7049990000000008</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.130000</v>
+        <v>2191.13</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1794.930000</v>
+        <v>-1794.93</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>